--- a/Excelens_Trunk/src/com/proj/objectRepository/ObjectsFile_Transmittals.xlsx
+++ b/Excelens_Trunk/src/com/proj/objectRepository/ObjectsFile_Transmittals.xlsx
@@ -5,7 +5,7 @@
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Excelens_JWS\Excelens_Trunk_Jul122017\src\com\proj\objectRepository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_EXCL_JUL\Excelens_Trunk\src\com\proj\objectRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,12 +20,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Objects_Transmittals!$A$1:$G$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Objects_Transmittals_Toolbar!$A$1:$G$11</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="150">
   <si>
     <t>textbox</t>
   </si>
@@ -472,12 +472,15 @@
   </si>
   <si>
     <t>.//*[@class='ms-listlink ms-draggable' and @aria-label='SupportDocuments, Folder']</t>
+  </si>
+  <si>
+    <t>movetoelement_click</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -913,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A39"/>
+  <dimension ref="A2:A40"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD40"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1112,6 +1115,11 @@
     <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Excelens_Trunk/src/com/proj/objectRepository/ObjectsFile_Transmittals.xlsx
+++ b/Excelens_Trunk/src/com/proj/objectRepository/ObjectsFile_Transmittals.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="151">
   <si>
     <t>textbox</t>
   </si>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>movetoelement_click</t>
+  </si>
+  <si>
+    <t>dropdown_react</t>
   </si>
 </sst>
 </file>
@@ -916,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A40"/>
+  <dimension ref="A2:A41"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1120,6 +1123,11 @@
     <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1138,9 +1146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
